--- a/teacherInput1.xlsx
+++ b/teacherInput1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nodejs\setup\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xu Enze\Documents\GitHub\Sunshine-Interview-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{583864A9-56A7-4599-A496-89512E6C9A15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2F645F-3AC5-4E81-96D7-4A9863731D1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE2510ED-3713-42D7-98AB-34EEF9B9100E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>博雅楼101教室</t>
   </si>
@@ -205,6 +205,53 @@
   </si>
   <si>
     <t>数学</t>
+  </si>
+  <si>
+    <t>InterviewSiteName</t>
+    <rPh sb="0" eb="1">
+      <t>di dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTime</t>
+    <rPh sb="0" eb="1">
+      <t>kai shi shi j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTime</t>
+    <rPh sb="0" eb="1">
+      <t>jie shu shi j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherID</t>
+    <rPh sb="0" eb="1">
+      <t>zhun kao zheng hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherName</t>
+    <rPh sb="0" eb="1">
+      <t>xing m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -574,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BE9E99-89E7-41B2-B609-6A0A9E089994}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,28 +634,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>43628.583333333336</v>
-      </c>
-      <c r="C1" s="2">
-        <v>43627.618055555555</v>
-      </c>
-      <c r="D1" s="1">
-        <v>12990000</v>
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>18452567474</v>
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -619,22 +666,22 @@
         <v>43628.583333333336</v>
       </c>
       <c r="C2" s="2">
-        <v>43627.618055555555</v>
+        <v>43628.618055555555</v>
       </c>
       <c r="D2" s="1">
-        <v>12990004</v>
+        <v>12990000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>13535197549</v>
+        <v>18452567474</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -645,22 +692,22 @@
         <v>43628.583333333336</v>
       </c>
       <c r="C3" s="2">
-        <v>43627.618055555555</v>
+        <v>43628.618055555555</v>
       </c>
       <c r="D3" s="1">
-        <v>12990008</v>
+        <v>12990004</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>13737981649</v>
+        <v>13535197549</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -668,25 +715,25 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>43628.625</v>
+        <v>43628.583333333336</v>
       </c>
       <c r="C4" s="2">
-        <v>43627.659722222219</v>
+        <v>43628.618055555555</v>
       </c>
       <c r="D4" s="1">
-        <v>12990001</v>
+        <v>12990008</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>13715727774</v>
+        <v>13737981649</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -697,22 +744,22 @@
         <v>43628.625</v>
       </c>
       <c r="C5" s="2">
-        <v>43627.659722222219</v>
+        <v>43628.659722222219</v>
       </c>
       <c r="D5" s="1">
-        <v>12990005</v>
+        <v>12990001</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1">
-        <v>13587526477</v>
+        <v>13715727774</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -723,48 +770,48 @@
         <v>43628.625</v>
       </c>
       <c r="C6" s="2">
-        <v>43627.659722222219</v>
+        <v>43628.659722222219</v>
       </c>
       <c r="D6" s="1">
-        <v>12990009</v>
+        <v>12990005</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
-        <v>18734267551</v>
+        <v>13587526477</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>43628.583333333336</v>
+        <v>43628.625</v>
       </c>
       <c r="C7" s="2">
-        <v>43627.618055555555</v>
+        <v>43628.659722222219</v>
       </c>
       <c r="D7" s="1">
-        <v>12990006</v>
+        <v>12990009</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>13972930586</v>
+        <v>18734267551</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -775,22 +822,22 @@
         <v>43628.583333333336</v>
       </c>
       <c r="C8" s="2">
-        <v>43627.618055555555</v>
+        <v>43628.618055555555</v>
       </c>
       <c r="D8" s="1">
-        <v>12990010</v>
+        <v>12990006</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
-        <v>13911848637</v>
+        <v>13972930586</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -801,22 +848,22 @@
         <v>43628.583333333336</v>
       </c>
       <c r="C9" s="2">
-        <v>43627.618055555555</v>
+        <v>43628.618055555555</v>
       </c>
       <c r="D9" s="1">
-        <v>12990002</v>
+        <v>12990010</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1">
-        <v>18812714365</v>
+        <v>13911848637</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -824,25 +871,25 @@
         <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>43628.625</v>
+        <v>43628.583333333336</v>
       </c>
       <c r="C10" s="2">
-        <v>43627.659722222219</v>
+        <v>43628.618055555555</v>
       </c>
       <c r="D10" s="1">
-        <v>12990003</v>
+        <v>12990002</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1">
-        <v>13784284491</v>
+        <v>18812714365</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -853,22 +900,22 @@
         <v>43628.625</v>
       </c>
       <c r="C11" s="2">
-        <v>43627.659722222219</v>
+        <v>43628.659722222219</v>
       </c>
       <c r="D11" s="1">
-        <v>12990007</v>
+        <v>12990003</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1">
-        <v>13760309717</v>
+        <v>13784284491</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -879,48 +926,48 @@
         <v>43628.625</v>
       </c>
       <c r="C12" s="2">
-        <v>43627.659722222219</v>
+        <v>43628.659722222219</v>
       </c>
       <c r="D12" s="1">
-        <v>12990011</v>
+        <v>12990007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1">
-        <v>18429682322</v>
+        <v>13760309717</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>43627.375</v>
+        <v>43628.625</v>
       </c>
       <c r="C13" s="2">
-        <v>43627.409722222219</v>
+        <v>43628.659722222219</v>
       </c>
       <c r="D13" s="1">
-        <v>11990002</v>
+        <v>12990011</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1">
-        <v>13346669064</v>
+        <v>18429682322</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -934,19 +981,19 @@
         <v>43627.409722222219</v>
       </c>
       <c r="D14" s="1">
-        <v>11990006</v>
+        <v>11990002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1">
-        <v>13415299709</v>
+        <v>13346669064</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -960,19 +1007,19 @@
         <v>43627.409722222219</v>
       </c>
       <c r="D15" s="1">
-        <v>11990010</v>
+        <v>11990006</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1">
-        <v>13580933067</v>
+        <v>13415299709</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -980,25 +1027,25 @@
         <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>43627.416666666664</v>
+        <v>43627.375</v>
       </c>
       <c r="C16" s="2">
-        <v>43627.451388888891</v>
+        <v>43627.409722222219</v>
       </c>
       <c r="D16" s="1">
-        <v>11990011</v>
+        <v>11990010</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1">
-        <v>18508685888</v>
+        <v>13580933067</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1012,19 +1059,19 @@
         <v>43627.451388888891</v>
       </c>
       <c r="D17" s="1">
-        <v>11990003</v>
+        <v>11990011</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1">
-        <v>18990367691</v>
+        <v>18508685888</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1038,42 +1085,42 @@
         <v>43627.451388888891</v>
       </c>
       <c r="D18" s="1">
-        <v>11990007</v>
+        <v>11990003</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1">
-        <v>18794387510</v>
+        <v>18990367691</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
-        <v>43627.375</v>
+        <v>43627.416666666664</v>
       </c>
       <c r="C19" s="2">
-        <v>43627.409722222219</v>
+        <v>43627.451388888891</v>
       </c>
       <c r="D19" s="1">
-        <v>11990004</v>
+        <v>11990007</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1">
-        <v>13898422837</v>
+        <v>18794387510</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>6</v>
@@ -1090,19 +1137,19 @@
         <v>43627.409722222219</v>
       </c>
       <c r="D20" s="1">
-        <v>11990005</v>
+        <v>11990004</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1">
-        <v>18456223339</v>
+        <v>13898422837</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1116,19 +1163,19 @@
         <v>43627.409722222219</v>
       </c>
       <c r="D21" s="1">
-        <v>11990008</v>
+        <v>11990005</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1">
-        <v>18301725555</v>
+        <v>18456223339</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1136,22 +1183,22 @@
         <v>48</v>
       </c>
       <c r="B22" s="2">
-        <v>43627.416666666664</v>
+        <v>43627.375</v>
       </c>
       <c r="C22" s="2">
-        <v>43627.451388888891</v>
+        <v>43627.409722222219</v>
       </c>
       <c r="D22" s="1">
-        <v>11990001</v>
+        <v>11990008</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1">
-        <v>18515418788</v>
+        <v>18301725555</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>29</v>
@@ -1168,19 +1215,19 @@
         <v>43627.451388888891</v>
       </c>
       <c r="D23" s="1">
-        <v>11990005</v>
+        <v>11990001</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G23" s="1">
-        <v>18456223339</v>
+        <v>18515418788</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1194,18 +1241,44 @@
         <v>43627.451388888891</v>
       </c>
       <c r="D24" s="1">
+        <v>11990005</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="1">
+        <v>18456223339</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43627.416666666664</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43627.451388888891</v>
+      </c>
+      <c r="D25" s="1">
         <v>11990009</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>18499551624</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>59</v>
       </c>
     </row>
